--- a/Applications/Projects/Hakediş/output.xlsx
+++ b/Applications/Projects/Hakediş/output.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,3224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>4237054782</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>BÜNYAMİN BOZKURT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4237077327</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OSMAN YILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4236911547</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LEYLA KOÇKAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4237115406</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FATIH YILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4236719575</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ÖMER ÖZTÜRK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4237046047</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EVREN GOKTEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4237046063</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BERKAN INANC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4237047432</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZEHRA BETUL BAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4237047457</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ABDULSEMET GULSOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4237048636</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OĞUZHAN PÜRNEK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4236533555</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AHMET DOĞAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4236178965</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MUSTAFA CANPOLAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4237173494</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SÜMEYYE OCAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4237124034</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YAĞMUR GÖKDUMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4237088661</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SONGÜL CENGYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4237027178</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AHMET DENİZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4237070337</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CENGİZ CANPOLAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4236930777</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FIRAT YÜCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4237111208</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MUKADES İNAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4237131413</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ONUR ÖZKANCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4237117358</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ORHAN SÜNGER</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4237069333</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NILAY GAZETECI TEKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4237069487</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SAVAS KIZMAZOGLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4237069536</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SECIL SENCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4237069545</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HARUN GENCTURK</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4237069623</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BIRGUL TEOMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4237214762</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HATICE CERIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4237045255</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ZEKY EJDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4237057594</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ELANUR YARDIMCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4237277596</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ZEYNEP ÇAĞLAYAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4237289547</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BURAK CANPOLAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4237234939</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KADİR ÖZDAMARLAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4237070555</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SENEM KÜÇÜK ÖCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4237057515</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>YASİN BÜYÜKBAŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4237163196</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SEMIH GUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4237163218</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AYSEGUL GUNDUZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4237163288</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>KAMURAN BİR</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4237116583</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FATMA GULESEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4237116781</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>KORAY HICYILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4237260550</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MEHMET SERVET</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4237260595</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SELAMI OGUZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4237163248</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CAGLA KIRAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4237260620</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HILAL ERSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4237211659</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MUSTAFA DEMIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4237260669</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BURAK SEVIMLI</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4237211743</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HUSEYIN SEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4237211664</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ZEYNEP EZGI YILMABASAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4237211798</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NIHAT AVSEREN</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4237297967</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PETEK OZTURK</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4237297968</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASLI YAKAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4237297970</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SEMA NILAY SEZER</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4237297997</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NEZIH OZEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4237053204</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MEHMET ALTINBULAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4237005769</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NUR CINGILLIO?LU</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4237308539</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AYTEN TEPECYK ULUTA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4237321226</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ÖZLEM ATABEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4237348271</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MUSTAFA ÖZDEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4237344063</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SELVANUR KAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4237297972</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HILAL KECECI</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4237326174</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SERVET KOLUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4237326345</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GOZDE KALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4237326489</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SEBNEM SOZEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4237326545</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>OSMAN TURGUT SARIKAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4237326632</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>EBUBEKIR ONUR KIRASLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4237291634</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MUSTAFA MURAT YILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4236535819</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SERCAN BOZKIR BOZKURT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4237156575</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>YILMAZ BAYKÖSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4237181370</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>KAMURAN KÜÇÜKİNCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4237121895</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RABYA KÖSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4237380478</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SEDAT YILDIRIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4237205313</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>HATİCE UGURLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4237196394</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DİLEK KİLKAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4237212517</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MERYEM ATABEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4237202730</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ÖNDER NARİN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4237431130</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NECMETIN YÜCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4236323910</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HACI KAMİL ALTINGÖZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4237095493</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AHMET YILDIRIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4236973179</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NİYAZİ ÖZALP</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4237171333</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ZEHRA GEZER</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4237033317</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MERVE KURT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4237081105</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FURKAN ULUCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4237188680</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RUHAN DEVECİO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4237038079</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HATİCE ÖZEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4237301862</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>YRFAN UCAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4237302364</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ALİ GÖKDEMİR</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4237289760</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BURAK CANPOLAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4235751143</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ÜLKÜ IŞIKLI</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4234985762</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FERHAT KURNAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4237374858</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PELIN KULAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4237375024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AHMET BAHCECI</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4237375220</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>NIHAT BERKAY EROGLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4237422368</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MUSTAFA SAHIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4237375151</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FULYA EVRAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4237422389</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MEHMET FATIH OZDOGAN KAVZOGLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4237375278</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ELIF SERIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4237422429</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MEHMET RESIT ARKAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4237422449</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NILAY VARICI</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4237422477</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>UYGAR MUTLUER</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4237472714</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SUAYIP TALAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4237472764</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NAGIHAN SENER</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4237472821</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FATMA ESRA UCGUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4237472879</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>RUMEYSA CELIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4237585293</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MELDA SAHIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4237502953</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FATYH KARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4237394620</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ALİ KAÇAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4237369787</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>BERAT ŞAHİN</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4237252890</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ÖMER TEKİR</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4237264342</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BURAK TOKMAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4236956274</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MEVLÜT ÇALIŞIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4237339369</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SEVGY DO?AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4237493168</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ALİ ERAYMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4237528848</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>KADRİYE NURAY ULUEREN</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4237557705</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AHMET GÜVEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4237264487</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BURAK TOKMAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4237194322</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MAHMUT ÜSTÜNDA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4237087012</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ERSAN A?CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4237371351</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>FATMA FERAY BOYNUKALIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4237519377</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DAMLA YANNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4237519416</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OMER FARUK CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4237519421</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MEHMET NEDIM ALTUNOZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4237519480</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TOLGA ARSLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4237519515</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ABDULLAH BELGEMEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4237556264</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SEDEF AVCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4237556426</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ZEKIYE SEVAL NAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4237556265</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ZEYNEP KARAKAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4237556428</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NEZIR OZDEMIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4237556460</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EBUBEKIR ONUR KARACAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4237550527</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MEPAK REKLAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4237567359</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MUSTAFA ALTUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4237212953</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MUSTAFA KİLCİ</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4237476497</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BAYRAM CANDAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4237366924</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>VEYSEL ASLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4237584982</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SEDAT SOZEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4237585039</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MUSTAFA GUVENC DEMIREL</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4237589194</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>OSMAN AZMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4237584946</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>FATMA SELCEN GURDAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4237585107</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>REZZAN YUCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>4237585143</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>HAYRIYE AZAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4237633220</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ZEHRA AY GUNEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4237633250</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ALEV SENEMTASI</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4237633298</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>GOKSEL DUZCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4237633304</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>BURHAN CETINKAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4237633368</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>CAGRI YILDIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4237681652</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>FEVZIYE DONMEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4237681710</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>YUSUF BAG</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4237681735</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SEZIN YUKSEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4237681803</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>OSMAN ORAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>4237681870</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TAYFUN SEYREK</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4237560252</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>RAMAZAN SERBEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>4237640673</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TURGAY TURAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>4237756863</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>HAKAN KARAGUŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>4237675939</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DAVUT SERTKAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>4237572163</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ÖZCAN TİC TOMARZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>4237601322</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>HALİL KARAÇAVUŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>4237340026</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>EMEL TEMİZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4237508638</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CEBRAİL ÇİMEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4237487960</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TOLGA CO?KUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>4237476547</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>AYDAN SERAP ÜNALMIŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>4237537763</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SALİM KISMET</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4237621074</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ZÜBEYIR YILDIRIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>4237289317</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TÜRKAN YALÇIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4237390450</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MEMİŞ SATOĞLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4237714223</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>YASEMİN GÜR</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>4237450429</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>EMİNE HAYRET</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4237568644</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MUSTAFA CEVİZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>4237790224</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>VURAL AYDOGAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>4237794530</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ADEM ÖNER</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>4237810520</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MERVE GÜMÜ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>4237720114</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>HALİL KÖPÜR</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>4237633252</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>HANIM BUGRUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>4237012337</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>OSMAN KADAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>4236700579</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>HİKMET YÜCESAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>4237730261</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ASLIHAN SANSARCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4237730318</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>UGUR GULER</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>4237730322</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MUAMMER BOBUSOGLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>4237730356</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>NEVIN OZDEMIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>4237860809</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>yusuf çelıksoy</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>4237825833</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MURAT ÖREN</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>4237819701</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>HÜSEYİN PARLAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>4237142850</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>HARUN YILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>4236671799</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ALİ AK</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>4237664942</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>AYŞE KINAŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>4235626124</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>DEMET YÜZÜKÇÜ</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>4235704401</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>GÖKHAN BULUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>4235743577</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>DİLEK ÖZTÜRK</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>4236573565</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SEZER CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>4236492059</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SEZER CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4237097458</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>BERAT ŞAHİN</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4235842435</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>FATİH ILGIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>4236759477</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>İPEK MOBILYA ÇIMKOM ŞUBESI</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>4236430305</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CEVAHYR OBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>4234938454</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>YEŞİM ÖZBEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4237903532</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ALİ FATİH OFLEZER</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4237863513</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>güllü senol</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>4237913583</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>NAZIM KUTLUSOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>4237658507</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ÖMER ÇAVUŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>4237683169</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FATİH ÇALIŞKAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>4237429012</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>İPEK MOBILYA ÇIMKOM ŞUBESI</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>4237703952</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>FARUK YILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4237522293</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>OKTAY ÖZDYL</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>4237428603</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SALİH KAÇAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>4237287412</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SERHAT PİLAV</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>4236466514</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SİBEL ADIYAMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>4237752196</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>GÜLAY ŞENGÜL</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>4237562817</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ALİ ÇİÇEK</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>4237779692</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ASLIHAN ERDOGAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>4237780016</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>FATIH SECIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>4237780090</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>EMINE AKINCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>4237780124</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>AHMET TURAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>4237930436</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>KAMYL DO?AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>4237841127</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>HALIL DEMIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>4237841142</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>OZCAN KAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>4237841163</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>EMRE ERKAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>4237994019</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TOLGAHAN TEHLI</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>4238037311</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FATMA SELCEN KONUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>4237892308</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MUSLIM GOZCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>4237892351</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>KAMURAN SAGLAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>4237892362</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>IBRAHIM CAKMAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>4238103508</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ONAT ALAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>4238054906</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>CANAN KÖSEOĞLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>4238087896</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>KÜBRA MERSİN</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>4238057786</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TU?BA MÜEZZYNO?LU</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>4238021000</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ÖMER ÜNAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>4237995242</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>HAKAN PALABIYIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>4237910633</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BATUHAN KORKMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>4238070957</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>LEVENT ÖZKARAKAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>4237993277</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SALİM GÖKDUMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>4237853893</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ESIN YILMAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>4237810985</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MURAT TAŞOLUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>4237751937</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>FATYH KARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>4237978368</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>KASIM ARSLANTAŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>4237990060</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>KEMAL ADANUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>4237993152</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ARIF KOCABIYIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>4237993189</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MEHTAP BILAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>4237993239</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>AYSENUR GUNGOR UZUNOGLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>4237993287</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>NILUFER SOZEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>4238036999</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>UMIT AKCAN ATASOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>4238037102</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ELIF SEZGIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>4238037170</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>YUSUF OZGUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>4238037220</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MUSTAFA KOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>4238037250</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>NILGUN OZTURK</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>4237737407</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ATYLLA VECEHY SÜRMELYO?LU</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>4237843996</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>NİZAMETTİN ÖZKAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>4237902987</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TEYFİK GÖKYILDIRIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>4238141047</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ERTUĞRUL ASLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>4238112780</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ORHAN MUTLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>4237985916</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ASLIHAN TOPÇU</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>4237994955</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MURAT CİNGİL</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>4237998861</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ISIL OZTURK</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>4237875912</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ERKAN ?AHAN ?AHAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>4237930747</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>FATMA UÇA</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>4238112673</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>NURGÜL KESKİNKILIÇ</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>4238111362</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>UĞUR ALTINOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>4237951732</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>GAMZE SATLIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>4238078782</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>AHMET AHTA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>4237906466</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Fikrican ŞAHİN POSLUOĞLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>4237956820</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>HACI SADRİ BAŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>4237865824</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BURAK TOKMAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>4237743901</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MAHMUT ?AHAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>4237433425</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>BULUT KOÇ</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>4237870871</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>FATYH ÖZGÜR</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>4237914688</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ERTUĞRUL DENİZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>4237894944</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>CUMA ERDOĞAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>4238103073</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>EMRE YILDIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>4238103130</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>PERVER TIMURTAS DAYAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>4238103188</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>GULDEN SINEM IZGI</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>4238103246</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>AHMET BILGEHAN SAKALLI</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>